--- a/DATA_goal/Junction_Flooding_215.xlsx
+++ b/DATA_goal/Junction_Flooding_215.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41647.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>9.58</v>
+        <v>0.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.83</v>
+        <v>0.68</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.9</v>
+        <v>0.29</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>21.22</v>
+        <v>2.12</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>15.74</v>
+        <v>1.57</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>7.33</v>
+        <v>0.73</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>20.96</v>
+        <v>2.1</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>12.03</v>
+        <v>1.2</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.52</v>
+        <v>0.65</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.82</v>
+        <v>0.78</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>10.42</v>
+        <v>1.04</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.31</v>
+        <v>0.73</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.05</v>
+        <v>0.21</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>111.63</v>
+        <v>11.16</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>21.5</v>
+        <v>2.15</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.22</v>
+        <v>0.72</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>13.48</v>
+        <v>1.35</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.37</v>
+        <v>0.74</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>12.74</v>
+        <v>1.27</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.38</v>
+        <v>0.64</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.93</v>
+        <v>0.59</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>19</v>
+        <v>1.9</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.6</v>
+        <v>0.36</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.02</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41647.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.44</v>
+        <v>0.24</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.68</v>
+        <v>0.17</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.75</v>
+        <v>0.58</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.76</v>
+        <v>0.38</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.75</v>
+        <v>0.18</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>10.44</v>
+        <v>1.04</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.19</v>
+        <v>0.32</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.41</v>
+        <v>0.14</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.58</v>
+        <v>0.26</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.11</v>
+        <v>0.21</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.73</v>
+        <v>0.27</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.29</v>
+        <v>0.23</v>
       </c>
       <c r="R3" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AF3" s="4" t="n">
         <v>1.03</v>
       </c>
-      <c r="S3" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>24.78</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>10.27</v>
-      </c>
       <c r="AG3" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.43</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41647.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.35</v>
+        <v>0.14</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.3</v>
+        <v>0.33</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.06</v>
+        <v>0.21</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.29</v>
+        <v>0.63</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.8</v>
+        <v>0.18</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.39</v>
+        <v>0.14</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.49</v>
+        <v>0.35</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.51</v>
+        <v>0.35</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.44</v>
+        <v>0.14</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.11</v>
+        <v>0.61</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.39</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41647.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.23</v>
+        <v>1.02</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.62</v>
+        <v>0.76</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>22.55</v>
+        <v>2.26</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>18.14</v>
+        <v>1.81</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.94</v>
+        <v>0.79</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>27.08</v>
+        <v>2.71</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>12.51</v>
+        <v>1.25</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.92</v>
+        <v>0.79</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.02</v>
+        <v>0.9</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.68</v>
+        <v>0.97</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.6</v>
+        <v>0.26</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.119999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.36</v>
+        <v>1.14</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.03</v>
+        <v>0.7</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>116.23</v>
+        <v>11.62</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>22.51</v>
+        <v>2.25</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.5</v>
+        <v>0.75</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>14.92</v>
+        <v>1.49</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.92</v>
+        <v>0.79</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>14.01</v>
+        <v>1.4</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.62</v>
+        <v>0.66</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.94</v>
+        <v>0.59</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.98</v>
+        <v>0.7</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>24.34</v>
+        <v>2.43</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.12</v>
+        <v>0.41</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41647.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>19.68</v>
+        <v>1.97</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>14.73</v>
+        <v>1.47</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="J6" s="4" t="n">
         <v>1.08</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>43.04</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>35.18</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>15.38</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>57.56</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>23.92</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>10.79</v>
-      </c>
       <c r="K6" s="4" t="n">
-        <v>15.66</v>
+        <v>1.57</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>17.25</v>
+        <v>1.73</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>18.36</v>
+        <v>1.84</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>4.97</v>
+        <v>0.5</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>15.49</v>
+        <v>1.55</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>21.98</v>
+        <v>2.2</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>13.08</v>
+        <v>1.31</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>228.45</v>
+        <v>22.84</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>43.27</v>
+        <v>4.33</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>14.3</v>
+        <v>1.43</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>29.07</v>
+        <v>2.91</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>15.29</v>
+        <v>1.53</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.04</v>
+        <v>0.2</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>28.93</v>
+        <v>2.89</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>11.19</v>
+        <v>1.12</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>13.16</v>
+        <v>1.32</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>18.18</v>
+        <v>1.82</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>52.41</v>
+        <v>5.24</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>17.88</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41647.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>20.46</v>
+        <v>2.05</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>15.33</v>
+        <v>1.53</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>44.72</v>
+        <v>4.47</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>36.64</v>
+        <v>3.66</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>16.01</v>
+        <v>1.6</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>62.96</v>
+        <v>6.3</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>24.85</v>
+        <v>2.49</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>11.23</v>
+        <v>1.12</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>16.35</v>
+        <v>1.63</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>17.93</v>
+        <v>1.79</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>19.07</v>
+        <v>1.91</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>5.17</v>
+        <v>0.52</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>16.09</v>
+        <v>1.61</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>22.88</v>
+        <v>2.29</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>13.54</v>
+        <v>1.35</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.55</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>237.61</v>
+        <v>23.76</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>45.01</v>
+        <v>4.5</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>14.85</v>
+        <v>1.49</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>30.29</v>
+        <v>3.03</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>15.91</v>
+        <v>1.59</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.12</v>
+        <v>0.21</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>30.97</v>
+        <v>3.1</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>13.12</v>
+        <v>1.31</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>11.6</v>
+        <v>1.16</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>13.65</v>
+        <v>1.36</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>18.88</v>
+        <v>1.89</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>57.32</v>
+        <v>5.73</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>18.57</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41647.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>14.61</v>
+        <v>1.46</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>10.95</v>
+        <v>1.09</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>31.97</v>
+        <v>3.2</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>26.15</v>
+        <v>2.61</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>11.42</v>
+        <v>1.14</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>46.9</v>
+        <v>4.69</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>17.76</v>
+        <v>1.78</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>11.63</v>
+        <v>1.16</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>12.82</v>
+        <v>1.28</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>13.65</v>
+        <v>1.36</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.7</v>
+        <v>0.37</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>11.5</v>
+        <v>1.15</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>16.34</v>
+        <v>1.63</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>167.8</v>
+        <v>16.78</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>32.23</v>
+        <v>3.22</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>10.62</v>
+        <v>1.06</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>21.66</v>
+        <v>2.17</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>11.36</v>
+        <v>1.14</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>22.78</v>
+        <v>2.28</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>8.31</v>
+        <v>0.83</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>9.77</v>
+        <v>0.98</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>13.5</v>
+        <v>1.35</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>42.73</v>
+        <v>4.27</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>5.97</v>
+        <v>0.6</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>13.28</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41647.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>21.73</v>
+        <v>2.17</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>16.3</v>
+        <v>1.63</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>1.79</v>
+        <v>0.18</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>47.44</v>
+        <v>4.74</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>38.97</v>
+        <v>3.9</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>17.03</v>
+        <v>1.7</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>65.75</v>
+        <v>6.57</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>26.37</v>
+        <v>2.64</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>11.91</v>
+        <v>1.19</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>17.44</v>
+        <v>1.74</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>19.03</v>
+        <v>1.9</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>20.21</v>
+        <v>2.02</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>5.48</v>
+        <v>0.55</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>17.07</v>
+        <v>1.71</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>24.3</v>
+        <v>2.43</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>14.3</v>
+        <v>1.43</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>252.49</v>
+        <v>25.25</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>47.71</v>
+        <v>4.77</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>15.76</v>
+        <v>1.58</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>32.17</v>
+        <v>3.22</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>16.9</v>
+        <v>1.69</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.24</v>
+        <v>0.22</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>32.36</v>
+        <v>3.24</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>13.92</v>
+        <v>1.39</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>12.28</v>
+        <v>1.23</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>14.45</v>
+        <v>1.44</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>20.02</v>
+        <v>2</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>59.72</v>
+        <v>5.97</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>8.91</v>
+        <v>0.89</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>19.7</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41647.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>7.43</v>
+        <v>0.74</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>5.56</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D10" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA10" s="4" t="n">
         <v>0.48</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>27.77</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>81.98</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>16.61</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>13.16</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>4.78</v>
-      </c>
       <c r="AB10" s="4" t="n">
-        <v>4.26</v>
+        <v>0.43</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>5.01</v>
+        <v>0.5</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>6.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>25.6</v>
+        <v>2.56</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>3.02</v>
+        <v>0.3</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>6.77</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_215.xlsx
+++ b/DATA_goal/Junction_Flooding_215.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,8 +446,8 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
@@ -462,12 +462,12 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
@@ -652,367 +652,367 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41647.34027777778</v>
+        <v>44896.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.96</v>
+        <v>1.13</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.68</v>
+        <v>0.76</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.29</v>
+        <v>0.34</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.12</v>
+        <v>2.46</v>
       </c>
       <c r="F2" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="W2" s="4" t="n">
         <v>1.57</v>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="P2" s="4" t="n">
+      <c r="X2" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AG2" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AH2" s="4" t="n">
         <v>1.04</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AH2" s="4" t="n">
-        <v>0.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41647.34722222222</v>
+        <v>44896.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.14</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.58</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.58</v>
+        <v>4.69</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.67</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.04</v>
+        <v>6.25</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.32</v>
+        <v>2.62</v>
       </c>
       <c r="J3" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R3" s="4" t="n">
         <v>0.14</v>
       </c>
-      <c r="K3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="P3" s="4" t="n">
+      <c r="S3" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>25.02</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>0.27</v>
       </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="Z3" s="4" t="n">
-        <v>0.6</v>
+        <v>3.14</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.38</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.24</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.45</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.25</v>
+        <v>1.98</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.03</v>
+        <v>5.7</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.86</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.24</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41647.35416666666</v>
+        <v>44896.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="D4" s="4" t="n">
         <v>0.14</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="E4" s="4" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0.09</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="T4" s="4" t="n">
-        <v>1.1</v>
+        <v>21.59</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.35</v>
+        <v>4.1</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.35</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.2</v>
+        <v>2.74</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.44</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.35</v>
+        <v>2.83</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.07</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.72</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.61</v>
+        <v>5.3</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.75</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41647.36111111111</v>
+        <v>44896.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.02</v>
+        <v>0.42</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.3</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.26</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.81</v>
+        <v>0.71</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.33</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.71</v>
+        <v>1.92</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.25</v>
+        <v>0.52</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.3</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.38</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.97</v>
+        <v>0.41</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.1</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.14</v>
+        <v>0.48</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.31</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.06</v>
@@ -1021,673 +1021,153 @@
         <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>11.62</v>
+        <v>4.42</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.25</v>
+        <v>0.98</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.75</v>
+        <v>0.31</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.49</v>
+        <v>0.64</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.32</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.4</v>
+        <v>0.88</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.66</v>
+        <v>0.28</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.59</v>
+        <v>0.26</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.95</v>
+        <v>0.39</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.43</v>
+        <v>1.79</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.41</v>
+        <v>0.16</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41647.36805555555</v>
+        <v>44896.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.97</v>
+        <v>4.22</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.47</v>
+        <v>3.09</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.11</v>
+        <v>0.57</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>4.3</v>
+        <v>9.4</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>3.52</v>
+        <v>7.26</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.54</v>
+        <v>3.28</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>5.76</v>
+        <v>14.66</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.39</v>
+        <v>5.24</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.08</v>
+        <v>2.22</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.57</v>
+        <v>3.14</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.73</v>
+        <v>3.76</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.84</v>
+        <v>4.09</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.55</v>
+        <v>3.38</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>2.2</v>
+        <v>4.71</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.31</v>
+        <v>3.05</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.53</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.3</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>22.84</v>
+        <v>44.16</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>4.33</v>
+        <v>9.48</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.43</v>
+        <v>3.12</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.91</v>
+        <v>6.17</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.53</v>
+        <v>3.23</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.89</v>
+        <v>6.82</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.26</v>
+        <v>2.76</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.12</v>
+        <v>2.54</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.32</v>
+        <v>2.97</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.82</v>
+        <v>3.95</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>5.24</v>
+        <v>13.31</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.8</v>
+        <v>1.66</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41647.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>23.76</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41647.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>16.78</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41647.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="F9" s="4" t="n">
         <v>3.9</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>25.25</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.97</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41647.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41647.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>17.97</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>14.66</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>25.94</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>91.09</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>18.08</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>6.37</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>23.52</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>7.46</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_215.xlsx
+++ b/DATA_goal/Junction_Flooding_215.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44896.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.26</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.64</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.43</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.46</v>
+        <v>24.62</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.81</v>
+        <v>18.07</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.59</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.54</v>
+        <v>25.44</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.4</v>
+        <v>13.96</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.54</v>
+        <v>5.42</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.79</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.06</v>
+        <v>10.59</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.7</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.22</v>
+        <v>12.23</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.25</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>12.99</v>
+        <v>129.95</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.49</v>
+        <v>24.89</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.33</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.57</v>
+        <v>15.72</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.33</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.41</v>
+        <v>14.06</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.89</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.88</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.31</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.69</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.28</v>
+        <v>22.83</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44896.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.14</v>
+        <v>21.42</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.58</v>
+        <v>15.78</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.93</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.69</v>
+        <v>46.95</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.76</v>
+        <v>37.6</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.67</v>
+        <v>16.73</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.25</v>
+        <v>62.45</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.62</v>
+        <v>26.18</v>
       </c>
       <c r="J3" s="4" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>16.92</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>23.89</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>250.2</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>47.27</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>15.62</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>31.42</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>31.37</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>19.76</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>1.14</v>
       </c>
-      <c r="K3" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>25.02</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.11</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>5.7</v>
+        <v>57.02</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.95</v>
+        <v>19.52</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44896.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.86</v>
+        <v>18.59</v>
       </c>
       <c r="C4" s="4" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="D4" s="4" t="n">
         <v>1.38</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>0.14</v>
-      </c>
       <c r="E4" s="4" t="n">
-        <v>4.07</v>
+        <v>40.73</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.28</v>
+        <v>32.84</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.45</v>
+        <v>14.55</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.81</v>
+        <v>58.12</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.27</v>
+        <v>22.69</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.46</v>
+        <v>14.61</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.63</v>
+        <v>16.32</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.74</v>
+        <v>17.43</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.59</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.47</v>
+        <v>14.66</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.08</v>
+        <v>20.78</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.53</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>21.59</v>
+        <v>215.87</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.1</v>
+        <v>41.04</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.35</v>
+        <v>13.53</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.74</v>
+        <v>27.39</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.44</v>
+        <v>14.35</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.25</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.83</v>
+        <v>28.27</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.2</v>
+        <v>11.95</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.68</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.53</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.72</v>
+        <v>17.16</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.3</v>
+        <v>52.95</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.53</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.69</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44896.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.2</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.3</v>
+        <v>3.04</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.71</v>
+        <v>7.13</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.25</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.92</v>
+        <v>19.17</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.25</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.3</v>
+        <v>3.05</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.1</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.78</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.35</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>4.42</v>
+        <v>44.24</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.12</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.38</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.25</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.77</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.76</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.57</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.95</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.79</v>
+        <v>17.9</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_215.xlsx
+++ b/DATA_goal/Junction_Flooding_215.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44896.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>11.26</v>
+        <v>11.256</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.64</v>
+        <v>7.644</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.43</v>
+        <v>3.425</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>24.62</v>
+        <v>24.615</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>18.07</v>
+        <v>18.068</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.59</v>
+        <v>8.586</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>25.44</v>
+        <v>25.443</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>13.96</v>
+        <v>13.961</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.42</v>
+        <v>5.416</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.79</v>
+        <v>7.792</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>9.715</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.59</v>
+        <v>10.589</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.7</v>
+        <v>2.697</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>12.23</v>
+        <v>12.231</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>8.25</v>
+        <v>8.247999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>2.68</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.42</v>
+        <v>1.423</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>129.95</v>
+        <v>129.948</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>24.89</v>
+        <v>24.892</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>8.33</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="W2" s="4" t="n">
         <v>15.72</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.19</v>
+        <v>8.193</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>2.33</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>14.06</v>
+        <v>14.063</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>7.36</v>
+        <v>7.357</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.89</v>
+        <v>6.887</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.88</v>
+        <v>7.883</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>10.31</v>
+        <v>10.309</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.69</v>
+        <v>2.695</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>22.83</v>
+        <v>22.828</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.29</v>
+        <v>4.294</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>10.41</v>
+        <v>10.412</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44896.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>21.42</v>
+        <v>21.425</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.78</v>
+        <v>15.784</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.93</v>
+        <v>1.927</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>46.95</v>
+        <v>46.947</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>37.6</v>
+        <v>37.596</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>16.73</v>
+        <v>16.732</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>62.45</v>
+        <v>62.451</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>26.18</v>
+        <v>26.178</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>11.4</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>16.69</v>
+        <v>16.686</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>18.79</v>
+        <v>18.794</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>20.09</v>
+        <v>20.092</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.28</v>
+        <v>5.283</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>16.92</v>
+        <v>16.918</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>23.89</v>
+        <v>23.887</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>14.55</v>
+        <v>14.546</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.39</v>
+        <v>1.391</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.12</v>
+        <v>1.124</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>250.2</v>
+        <v>250.196</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>47.27</v>
+        <v>47.269</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>15.62</v>
+        <v>15.616</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>31.42</v>
+        <v>31.423</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>16.47</v>
+        <v>16.465</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.71</v>
+        <v>2.712</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>31.37</v>
+        <v>31.371</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.79</v>
+        <v>13.794</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.37</v>
+        <v>12.372</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>14.5</v>
+        <v>14.497</v>
       </c>
       <c r="AD3" s="4" t="n">
         <v>19.76</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.14</v>
+        <v>1.138</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>57.02</v>
+        <v>57.023</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>8.635999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>19.52</v>
+        <v>19.524</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44896.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>18.59</v>
+        <v>18.586</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>13.79</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.38</v>
+        <v>1.377</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>40.73</v>
+        <v>40.726</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>32.84</v>
+        <v>32.839</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>14.55</v>
+        <v>14.548</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>58.12</v>
+        <v>58.122</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>22.69</v>
+        <v>22.687</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>9.970000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>14.61</v>
+        <v>14.614</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>16.32</v>
+        <v>16.323</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>17.43</v>
+        <v>17.428</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.59</v>
+        <v>4.588</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>14.66</v>
+        <v>14.663</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>20.78</v>
+        <v>20.776</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12.53</v>
+        <v>12.529</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.96</v>
+        <v>0.962</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.86</v>
+        <v>0.861</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>215.87</v>
+        <v>215.868</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>41.04</v>
+        <v>41.038</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.53</v>
+        <v>13.534</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>27.39</v>
+        <v>27.389</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>14.35</v>
+        <v>14.351</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.25</v>
+        <v>2.251</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>28.27</v>
+        <v>28.271</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.95</v>
+        <v>11.955</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.68</v>
+        <v>10.681</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>12.53</v>
+        <v>12.531</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>17.16</v>
+        <v>17.158</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.723</v>
       </c>
       <c r="AF4" s="4" t="n">
         <v>52.95</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.53</v>
+        <v>7.527</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>16.92</v>
+        <v>16.921</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>3.91</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44896.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>14.66</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>44.16</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>13.31</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.9</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_215.xlsx
+++ b/DATA_goal/Junction_Flooding_215.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44896.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.2</v>
+        <v>4.201</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.04</v>
+        <v>3.043</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>9.388</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>7.13</v>
+        <v>7.129</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.25</v>
+        <v>3.252</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>19.17</v>
+        <v>19.172</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.24</v>
+        <v>5.236</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.25</v>
+        <v>2.248</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.05</v>
+        <v>3.047</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.76</v>
+        <v>3.757</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.1</v>
+        <v>4.102</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.99</v>
+        <v>0.995</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.38</v>
+        <v>3.384</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.78</v>
+        <v>4.781</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.1</v>
+        <v>3.102</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.64</v>
+        <v>0.643</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>44.24</v>
+        <v>44.239</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>9.785</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.12</v>
+        <v>3.123</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>6.38</v>
+        <v>6.381</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.25</v>
+        <v>3.248</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.695</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>8.77</v>
+        <v>8.773</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.76</v>
+        <v>2.759</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.57</v>
+        <v>2.574</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3</v>
+        <v>2.996</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.95</v>
+        <v>3.946</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>17.9</v>
+        <v>17.902</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.63</v>
+        <v>1.632</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.91</v>
+        <v>3.908</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44896.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>14.66</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>44.16</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>3.9</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_215.xlsx
+++ b/DATA_goal/Junction_Flooding_215.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44896.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.201</v>
+        <v>4.2</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.043</v>
+        <v>3.04</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>9.388</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>7.129</v>
+        <v>7.13</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.252</v>
+        <v>3.25</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>19.172</v>
+        <v>19.17</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.236</v>
+        <v>5.24</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.248</v>
+        <v>2.25</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.047</v>
+        <v>3.05</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.757</v>
+        <v>3.76</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.102</v>
+        <v>4.1</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.384</v>
+        <v>3.38</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.781</v>
+        <v>4.78</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.102</v>
+        <v>3.1</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.643</v>
+        <v>0.64</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>44.239</v>
+        <v>44.24</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>9.785</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.123</v>
+        <v>3.12</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>6.381</v>
+        <v>6.38</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.248</v>
+        <v>3.25</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.695</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>8.773</v>
+        <v>8.77</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.759</v>
+        <v>2.76</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.574</v>
+        <v>2.57</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.996</v>
+        <v>3</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.946</v>
+        <v>3.95</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>17.902</v>
+        <v>17.9</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.632</v>
+        <v>1.63</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.908</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44896.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>14.66</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>44.16</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>13.31</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.9</v>
+        <v>3.91</v>
       </c>
     </row>
   </sheetData>
